--- a/IEDC_LookupTable_fill/categories_data.xlsx
+++ b/IEDC_LookupTable_fill/categories_data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -431,15 +431,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -469,7 +469,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -482,7 +482,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -495,7 +495,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -508,7 +508,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -521,7 +521,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
